--- a/Codes/Tesis/LocalSearch/Heuristicas.xlsx
+++ b/Codes/Tesis/LocalSearch/Heuristicas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\LocalSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C923A68-6A98-4286-A926-73CFBE3302CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDE2AF-85E3-480E-B7BA-FC78C2EDFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDF704B4-42F8-44AF-A6B2-179CBB81C7E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DDF704B4-42F8-44AF-A6B2-179CBB81C7E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prueba1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prueba2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>LD_LS1</t>
   </si>
@@ -51,6 +52,27 @@
   </si>
   <si>
     <t>GRASP_LS2</t>
+  </si>
+  <si>
+    <t>LS1 y LS2</t>
+  </si>
+  <si>
+    <t>LS1 y LS3</t>
+  </si>
+  <si>
+    <t>LS2 y LS3</t>
+  </si>
+  <si>
+    <t>LS1 LS2 y LS3</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>LS2</t>
+  </si>
+  <si>
+    <t>LS3</t>
   </si>
 </sst>
 </file>
@@ -91,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,6 +134,1641 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heuristics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS1 y LS2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$B$3:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>11.252750000000093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.252750000000093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.4447500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.503750000000094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.525250000000081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.585250000000091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.630250000000096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.76325000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.976750000000102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.979000000000143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.215000000000122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.416500000000111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.581750000000149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.762000000000167</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.854250000000164</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.038750000000173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.159000000000166</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.287750000000168</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.317750000000164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.339250000000177</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.390750000000171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.463750000000179</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.560250000000183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.645000000000183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.699750000000181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.755500000000181</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.766250000000184</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.781250000000187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0199-4C72-BFA1-A8078D1AF4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS1 y LS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$C$3:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>11.58200000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.58200000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.866250000000115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.019750000000109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.060500000000095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.267500000000133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.296500000000124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.355500000000156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.368500000000143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.479000000000138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.671000000000133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.759000000000148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.851250000000164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.877000000000166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.958500000000123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.938250000000139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.151500000000148</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.228750000000156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.32200000000017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.431500000000149</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.498000000000159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.598750000000164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.654500000000183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0199-4C72-BFA1-A8078D1AF4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS2 y LS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$D$3:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>12.213750000000083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.213750000000083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.265250000000098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.350000000000099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.386500000000099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.401500000000105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.445500000000107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.453000000000124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.515250000000142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.566750000000157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.586000000000165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0199-4C72-BFA1-A8078D1AF4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS1 LS2 y LS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$E$3:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>12.024000000000148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.024000000000148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.101250000000149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.263250000000152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.428500000000154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.675250000000158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.77500000000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.925250000000164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.105500000000172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.089000000000169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.20200000000017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.209500000000173</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.205250000000174</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.430500000000176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.46375000000018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.486250000000174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.542000000000177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.618250000000181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.680500000000173</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.901500000000178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.019500000000177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0199-4C72-BFA1-A8078D1AF4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$F$3:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>11.983250000000124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.983250000000124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.997250000000081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.060500000000104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.089500000000079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.363000000000085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.462750000000128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.647250000000151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.658000000000129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.723500000000156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.048500000000169</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.295250000000168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.369250000000175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.513000000000179</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.587000000000184</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.612750000000185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.695250000000186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.757500000000187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.794000000000189</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.816500000000188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.842250000000183</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.933500000000185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.062250000000187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.08800000000018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.098750000000187</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.103000000000184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.195250000000188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.236000000000189</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.31425000000019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.53950000000019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.639250000000192</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.786250000000194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.856000000000193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0199-4C72-BFA1-A8078D1AF4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$G$3:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>11.598000000000122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.598000000000122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.65600000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.671000000000133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.67100000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0199-4C72-BFA1-A8078D1AF4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$H$3:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>11.835250000000157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.835250000000157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.896500000000154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.948000000000155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.948000000000155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.978000000000156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.029500000000157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.283750000000161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.283750000000161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0199-4C72-BFA1-A8078D1AF4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="585123216"/>
+        <c:axId val="585122560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="585123216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585122560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585122560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585123216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978A0C80-619C-481F-D0ED-475D20D3289A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,7 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB61AB54-CCBF-4115-861F-76CB915929C0}">
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -770,4 +2430,502 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD6EE81-FAE0-4234-91FF-08438AC0AC14}">
+  <dimension ref="B2:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>11.252750000000093</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.58200000000009</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12.213750000000083</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12.024000000000148</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11.983250000000124</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11.598000000000122</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11.835250000000157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>11.252750000000093</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11.58200000000009</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12.213750000000083</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12.024000000000148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.983250000000124</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11.598000000000122</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11.835250000000157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>11.4447500000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11.866250000000115</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12.265250000000098</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.101250000000149</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11.997250000000081</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11.65600000000013</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11.896500000000154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>11.503750000000094</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.019750000000109</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12.350000000000099</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.263250000000152</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12.060500000000104</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11.671000000000133</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11.948000000000155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>11.525250000000081</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12.060500000000095</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12.386500000000099</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12.428500000000154</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12.089500000000079</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11.67100000000012</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11.948000000000155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>11.585250000000091</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12.267500000000133</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12.401500000000105</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12.675250000000158</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12.363000000000085</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11.978000000000156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>11.630250000000096</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12.296500000000124</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12.445500000000107</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12.77500000000016</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12.462750000000128</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12.029500000000157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>11.76325000000009</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12.355500000000156</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12.453000000000124</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12.925250000000164</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12.647250000000151</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12.283750000000161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>11.976750000000102</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12.368500000000143</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12.515250000000142</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13.105500000000172</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12.658000000000129</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12.283750000000161</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>11.979000000000143</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12.479000000000138</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12.566750000000157</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.089000000000169</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12.723500000000156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>12.215000000000122</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12.671000000000133</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12.586000000000165</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13.20200000000017</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13.048500000000169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12.416500000000111</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12.759000000000148</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13.209500000000173</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13.295250000000168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>12.581750000000149</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12.851250000000164</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13.205250000000174</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13.369250000000175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>12.762000000000167</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12.877000000000166</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.430500000000176</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13.513000000000179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>12.854250000000164</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12.958500000000123</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13.46375000000018</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13.587000000000184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>13.038750000000173</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12.938250000000139</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13.486250000000174</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13.612750000000185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>13.159000000000166</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13.151500000000148</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13.542000000000177</v>
+      </c>
+      <c r="F19" s="1">
+        <v>13.695250000000186</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>13.287750000000168</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13.228750000000156</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13.618250000000181</v>
+      </c>
+      <c r="F20" s="1">
+        <v>13.757500000000187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>13.317750000000164</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13.32200000000017</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13.680500000000173</v>
+      </c>
+      <c r="F21" s="1">
+        <v>13.794000000000189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>13.339250000000177</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13.431500000000149</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13.901500000000178</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.816500000000188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>13.390750000000171</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13.498000000000159</v>
+      </c>
+      <c r="E23" s="1">
+        <v>14.019500000000177</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13.842250000000183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>13.463750000000179</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13.598750000000164</v>
+      </c>
+      <c r="F24" s="1">
+        <v>13.933500000000185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>13.560250000000183</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13.654500000000183</v>
+      </c>
+      <c r="F25" s="1">
+        <v>14.062250000000187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>13.645000000000183</v>
+      </c>
+      <c r="F26" s="1">
+        <v>14.08800000000018</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>13.699750000000181</v>
+      </c>
+      <c r="F27" s="1">
+        <v>14.098750000000187</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>13.755500000000181</v>
+      </c>
+      <c r="F28" s="1">
+        <v>14.103000000000184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>13.766250000000184</v>
+      </c>
+      <c r="F29" s="1">
+        <v>14.195250000000188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>13.781250000000187</v>
+      </c>
+      <c r="F30" s="1">
+        <v>14.236000000000189</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>14.31425000000019</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>14.53950000000019</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>14.639250000000192</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>14.786250000000194</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>14.856000000000193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Codes/Tesis/LocalSearch/Heuristicas.xlsx
+++ b/Codes/Tesis/LocalSearch/Heuristicas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\LocalSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BeatrizGarcia/Documents/GitHub/TesisDoctoral/Codes/Tesis/LocalSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDE2AF-85E3-480E-B7BA-FC78C2EDFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761503F0-95A9-9348-BA33-4568855796B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DDF704B4-42F8-44AF-A6B2-179CBB81C7E8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33420" windowHeight="19000" activeTab="1" xr2:uid="{DDF704B4-42F8-44AF-A6B2-179CBB81C7E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -201,7 +201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1038,7 +1038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585122560"/>
@@ -1097,7 +1097,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585123216"/>
@@ -1139,7 +1139,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1176,7 +1176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1735,15 +1735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>136769</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107462</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1772,7 +1772,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2074,13 +2074,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>12.009000000000199</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>11.598000000000122</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>12.012250000000158</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>11.598000000000122</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>12.277250000000164</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>11.65600000000013</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>12.303000000000164</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>11.671000000000133</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>12.434000000000163</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>11.67100000000012</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>12.516500000000164</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>11.34075</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>12.537000000000164</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>12.462750000000128</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>12.542250000000172</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>12.647250000000151</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>12.56800000000017</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>12.658000000000129</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>13.096750000000178</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>12.723500000000156</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>13.25125000000018</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>13.048500000000169</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>13.317750000000169</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>13.295250000000168</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>13.452750000000183</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>13.369250000000175</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>13.492500000000186</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>13.513000000000179</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>13.540750000000184</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>13.587000000000184</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>13.643750000000184</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>13.612750000000185</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>13.672750000000187</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>13.695250000000186</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>13.852000000000178</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>13.757500000000187</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>14.063250000000181</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>13.794000000000189</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>14.081500000000185</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>13.816500000000188</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>14.320750000000187</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>13.842250000000183</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>14.398000000000188</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>13.933500000000185</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>14.522500000000187</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>14.062250000000187</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>14.648000000000188</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>14.08800000000018</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>14.729500000000193</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>14.098750000000187</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>14.743500000000196</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>14.103000000000184</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>14.754250000000196</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>14.195250000000188</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>14.7907500000002</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>14.236000000000189</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>14.857250000000201</v>
       </c>
@@ -2407,22 +2407,22 @@
         <v>14.31425000000019</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1">
         <v>14.53950000000019</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D32" s="1">
         <v>14.639250000000192</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="1">
         <v>14.786250000000194</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="1">
         <v>14.856000000000193</v>
       </c>
@@ -2436,16 +2436,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD6EE81-FAE0-4234-91FF-08438AC0AC14}">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>11.252750000000093</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>11.835250000000157</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>11.252750000000093</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>11.835250000000157</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>11.4447500000001</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>11.896500000000154</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>11.503750000000094</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>11.948000000000155</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>11.525250000000081</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>11.948000000000155</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>11.585250000000091</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>11.978000000000156</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>11.630250000000096</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>12.029500000000157</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>11.76325000000009</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>12.283750000000161</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>11.976750000000102</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>12.283750000000161</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>11.979000000000143</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>12.723500000000156</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>12.215000000000122</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>13.048500000000169</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12.416500000000111</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>13.295250000000168</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>12.581750000000149</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>13.369250000000175</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>12.762000000000167</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>13.513000000000179</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>12.854250000000164</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>13.587000000000184</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>13.038750000000173</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>13.612750000000185</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>13.159000000000166</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>13.695250000000186</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>13.287750000000168</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>13.757500000000187</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>13.317750000000164</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>13.794000000000189</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>13.339250000000177</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>13.816500000000188</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>13.390750000000171</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>13.842250000000183</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>13.463750000000179</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>13.933500000000185</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>13.560250000000183</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>14.062250000000187</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>13.645000000000183</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>14.08800000000018</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>13.699750000000181</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>14.098750000000187</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>13.755500000000181</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>14.103000000000184</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>13.766250000000184</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>14.195250000000188</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>13.781250000000187</v>
       </c>
@@ -2899,27 +2899,27 @@
         <v>14.236000000000189</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F31" s="1">
         <v>14.31425000000019</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F32" s="1">
         <v>14.53950000000019</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="1">
         <v>14.639250000000192</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="1">
         <v>14.786250000000194</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="1">
         <v>14.856000000000193</v>
       </c>

--- a/Codes/Tesis/LocalSearch/Heuristicas.xlsx
+++ b/Codes/Tesis/LocalSearch/Heuristicas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BeatrizGarcia/Documents/GitHub/TesisDoctoral/Codes/Tesis/LocalSearch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\LocalSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761503F0-95A9-9348-BA33-4568855796B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC45EB4-FBB8-4816-9DD1-704D283673FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33420" windowHeight="19000" activeTab="1" xr2:uid="{DDF704B4-42F8-44AF-A6B2-179CBB81C7E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DDF704B4-42F8-44AF-A6B2-179CBB81C7E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba1" sheetId="1" r:id="rId1"/>
     <sheet name="Prueba2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>LD_LS1</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>LS3</t>
+  </si>
+  <si>
+    <t>LS1_LS2yLS3</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -201,7 +204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1038,7 +1041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585122560"/>
@@ -1097,7 +1100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585123216"/>
@@ -1139,7 +1142,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1176,7 +1179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1772,7 +1775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2074,13 +2077,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>12.009000000000199</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>11.598000000000122</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>12.012250000000158</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>11.598000000000122</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>12.277250000000164</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>11.65600000000013</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>12.303000000000164</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>11.671000000000133</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>12.434000000000163</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>11.67100000000012</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>12.516500000000164</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>11.34075</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>12.537000000000164</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>12.462750000000128</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>12.542250000000172</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>12.647250000000151</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>12.56800000000017</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>12.658000000000129</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>13.096750000000178</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>12.723500000000156</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>13.25125000000018</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>13.048500000000169</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>13.317750000000169</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>13.295250000000168</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>13.452750000000183</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>13.369250000000175</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>13.492500000000186</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>13.513000000000179</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>13.540750000000184</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>13.587000000000184</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>13.643750000000184</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>13.612750000000185</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>13.672750000000187</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>13.695250000000186</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>13.852000000000178</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>13.757500000000187</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>14.063250000000181</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>13.794000000000189</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>14.081500000000185</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>13.816500000000188</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>14.320750000000187</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>13.842250000000183</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>14.398000000000188</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>13.933500000000185</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>14.522500000000187</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>14.062250000000187</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>14.648000000000188</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>14.08800000000018</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>14.729500000000193</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>14.098750000000187</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>14.743500000000196</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>14.103000000000184</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>14.754250000000196</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>14.195250000000188</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>14.7907500000002</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>14.236000000000189</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>14.857250000000201</v>
       </c>
@@ -2407,22 +2410,22 @@
         <v>14.31425000000019</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>14.53950000000019</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1">
         <v>14.639250000000192</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>14.786250000000194</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <v>14.856000000000193</v>
       </c>
@@ -2434,18 +2437,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD6EE81-FAE0-4234-91FF-08438AC0AC14}">
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>11.252750000000093</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>11.835250000000157</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>11.252750000000093</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>11.835250000000157</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>11.4447500000001</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>11.896500000000154</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>11.503750000000094</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>11.948000000000155</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>11.525250000000081</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>11.948000000000155</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>11.585250000000091</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>11.978000000000156</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>11.630250000000096</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>12.029500000000157</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>11.76325000000009</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>12.283750000000161</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>11.976750000000102</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>12.283750000000161</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>11.979000000000143</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>12.723500000000156</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>12.215000000000122</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>13.048500000000169</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12.416500000000111</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>13.295250000000168</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12.581750000000149</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>13.369250000000175</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>12.762000000000167</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>13.513000000000179</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>12.854250000000164</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>13.587000000000184</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>13.038750000000173</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>13.612750000000185</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>13.159000000000166</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>13.695250000000186</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>13.287750000000168</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>13.757500000000187</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>13.317750000000164</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>13.794000000000189</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>13.339250000000177</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>13.816500000000188</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>13.390750000000171</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>13.842250000000183</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>13.463750000000179</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>13.933500000000185</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>13.560250000000183</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>14.062250000000187</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>13.645000000000183</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>14.08800000000018</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>13.699750000000181</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>14.098750000000187</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>13.755500000000181</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>14.103000000000184</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>13.766250000000184</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>14.195250000000188</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>13.781250000000187</v>
       </c>
@@ -2899,29 +2902,43 @@
         <v>14.236000000000189</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F31" s="1">
         <v>14.31425000000019</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F32" s="1">
         <v>14.53950000000019</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F33" s="1">
         <v>14.639250000000192</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F34" s="1">
         <v>14.786250000000194</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F35" s="1">
         <v>14.856000000000193</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/Tesis/LocalSearch/Heuristicas.xlsx
+++ b/Codes/Tesis/LocalSearch/Heuristicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\LocalSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC45EB4-FBB8-4816-9DD1-704D283673FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BB0CC-3D9C-420B-A17A-71CACF59D472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DDF704B4-42F8-44AF-A6B2-179CBB81C7E8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>LD_LS1</t>
   </si>
@@ -77,12 +77,15 @@
   <si>
     <t>LS1_LS2yLS3</t>
   </si>
+  <si>
+    <t>LS2yLS3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,12 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,6 +1199,646 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heuristic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$B$40:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9952499999999684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9952499999999684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3084999999999747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5187499999999794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7364999999999808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7365000066666409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7365000133333011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22C3-42CD-AB9D-0752C182CF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$C$40:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4739999999999798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4739999999999798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4739999999999753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6262499999999736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8622499999999742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8622499999999742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8622499999999742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.212999999999969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.212999999999969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2129999999999725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22C3-42CD-AB9D-0752C182CF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$D$40:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2419999999999698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2419999999999698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22C3-42CD-AB9D-0752C182CF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS1_LS2yLS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$E$40:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6692499999999773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6692499999999773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6692499999999746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8794999999999735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9652499999999735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2677499999999755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4447499999999716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5262499999999752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7364999999999791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22C3-42CD-AB9D-0752C182CF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prueba2!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LS2yLS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prueba2!$F$40:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4417499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4417499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4417499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-22C3-42CD-AB9D-0752C182CF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="812423896"/>
+        <c:axId val="812426192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="812423896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812426192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="812426192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812423896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1230,7 +1879,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1766,6 +2958,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74984</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532995</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>186042</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A54679-6B54-A0F9-08F1-439901559F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2437,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD6EE81-FAE0-4234-91FF-08438AC0AC14}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,6 +4168,122 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>3.9952499999999684</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3.4739999999999798</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4.2419999999999698</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.6692499999999773</v>
+      </c>
+      <c r="F40">
+        <v>3.4417499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>3.9952499999999684</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3.4739999999999798</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4.2419999999999698</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3.6692499999999773</v>
+      </c>
+      <c r="F41">
+        <v>3.4417499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>4.3084999999999747</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3.4739999999999753</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3.6692499999999746</v>
+      </c>
+      <c r="F42">
+        <v>3.4417499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>4.5187499999999794</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3.6262499999999736</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3.8794999999999735</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>4.7364999999999808</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3.8622499999999742</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3.9652499999999735</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>4.7365000066666409</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3.8622499999999742</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4.2677499999999755</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>4.7365000133333011</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3.8622499999999742</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4.4447499999999716</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <v>4.212999999999969</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4.5262499999999752</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <v>4.212999999999969</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4.7364999999999791</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <v>4.2129999999999725</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
